--- a/results/Analysis.xlsx
+++ b/results/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\data-science-assignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F58D8-1516-4CC9-A253-9EE7AAF92345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E0B27-B16D-438D-AB66-788F4341B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{AF5E55F7-BBCC-4118-A01A-6E9950E34B08}"/>
   </bookViews>
@@ -242,13 +242,13 @@
     <t>No price effect detected.</t>
   </si>
   <si>
-    <t>Suggests other factors (promotions, trends) were the real drivers of sales.</t>
-  </si>
-  <si>
     <t>Anomalous Result</t>
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>Anomalouse result: Suggests other factors (promotions, trends) were the real drivers of sales.</t>
   </si>
 </sst>
 </file>
@@ -256,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,10 +490,10 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,10 +508,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +520,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -527,41 +535,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -580,22 +588,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +629,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -639,13 +660,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -708,13 +723,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -746,7 +787,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -778,7 +845,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -810,12 +915,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
@@ -823,6 +960,106 @@
           <color rgb="FF000000"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -874,6 +1111,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -885,7 +1129,9 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -917,6 +1163,101 @@
           <color rgb="FF000000"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -973,6 +1314,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -984,7 +1332,9 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1035,6 +1385,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1046,7 +1397,9 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1097,6 +1450,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1108,7 +1468,80 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1165,154 +1598,7 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1341,286 +1627,10 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1663,13 +1673,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1704,6 +1707,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1746,56 +1756,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C9CB73D-590F-444C-B133-689A890B434F}" name="Table1" displayName="Table1" ref="A1:P17" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C9CB73D-590F-444C-B133-689A890B434F}" name="Table1" displayName="Table1" ref="A1:P17" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:P16" xr:uid="{7C9CB73D-590F-444C-B133-689A890B434F}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{5BC4DBF0-D33F-4987-9969-1EF4BD751E3B}" name="Category Type" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{5BC4DBF0-D33F-4987-9969-1EF4BD751E3B}" name="Category Type" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>raw_data!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5AA27169-FA80-45BA-85AA-9665453D952A}" name="Price Segment" dataDxfId="22" totalsRowDxfId="16">
+    <tableColumn id="2" xr3:uid="{5AA27169-FA80-45BA-85AA-9665453D952A}" name="Price Segment" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>raw_data!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{20D22BA8-0585-467C-9F96-749F7BF5E27E}" name="Elasticity Segment" dataDxfId="21" totalsRowDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="15" xr3:uid="{20D22BA8-0585-467C-9F96-749F7BF5E27E}" name="Elasticity Segment" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>raw_data!K3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F576BC5A-2A05-4C8F-BD63-56E2ED801A37}" name="Elasticity" dataDxfId="20" totalsRowDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{F576BC5A-2A05-4C8F-BD63-56E2ED801A37}" name="Elasticity" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>raw_data!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8990446A-8F92-4037-A2BD-42DA63F7BF14}" name="Revenue Contribution" dataDxfId="18" totalsRowDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="17" xr3:uid="{8990446A-8F92-4037-A2BD-42DA63F7BF14}" name="Revenue Contribution" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>raw_data!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28D715D8-5356-48FF-90D9-86417F9026A2}" name="Total Quantity" dataDxfId="19" totalsRowDxfId="12">
+    <tableColumn id="8" xr3:uid="{28D715D8-5356-48FF-90D9-86417F9026A2}" name="Total Quantity" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>raw_data!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{301272E7-5540-4F84-BA6C-4018D0ED4FD3}" name="Total Quantity Simulated" dataDxfId="30" totalsRowDxfId="11">
+    <tableColumn id="9" xr3:uid="{301272E7-5540-4F84-BA6C-4018D0ED4FD3}" name="Total Quantity Simulated" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>raw_data!N3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82DBBBDD-2CCC-4857-9F0D-BD9EE4AEA9BF}" name="Total Quantity Increased" dataDxfId="29" totalsRowDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{82DBBBDD-2CCC-4857-9F0D-BD9EE4AEA9BF}" name="Total Quantity Increased" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Total Quantity Simulated]]/Table1[[#This Row],[Total Quantity]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{34A0283B-5DD3-43DC-B35D-C50C8D6571CC}" name="Avg. Unit Price" dataDxfId="28" totalsRowDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{34A0283B-5DD3-43DC-B35D-C50C8D6571CC}" name="Avg. Unit Price" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>raw_data!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{10CCA5B6-F35E-4598-9A7B-BE98C6158241}" name="Avg. Unit Price Simulated" dataDxfId="27" totalsRowDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{10CCA5B6-F35E-4598-9A7B-BE98C6158241}" name="Avg. Unit Price Simulated" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>raw_data!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1795D83B-CA13-4E62-AA88-125DAE6429DE}" name="Price Increase" dataDxfId="26" totalsRowDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{1795D83B-CA13-4E62-AA88-125DAE6429DE}" name="Price Increase" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Avg. Unit Price Simulated]]/Table1[[#This Row],[Avg. Unit Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{397FD373-548F-465F-99E2-3AC6CD7705D8}" name="Baseline Profit" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{397FD373-548F-465F-99E2-3AC6CD7705D8}" name="Baseline Profit" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>raw_data!P3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC1B0BCC-4D37-4FA9-A1B1-3FEE4340B358}" name="Simulated Profit" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{CC1B0BCC-4D37-4FA9-A1B1-3FEE4340B358}" name="Simulated Profit" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>raw_data!Q3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A448F9B3-C7A2-4FB2-8A43-4861F3036FBA}" name="Profit Increase" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{A448F9B3-C7A2-4FB2-8A43-4861F3036FBA}" name="Profit Increase" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Simulated Profit]]-Table1[[#This Row],[Baseline Profit]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{438CEC1A-D831-4650-8E73-7C7022BEF4CF}" name="Perc Profit Increase" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="16" xr3:uid="{438CEC1A-D831-4650-8E73-7C7022BEF4CF}" name="Perc Profit Increase" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Profit Increase]]/Table1[[#This Row],[Baseline Profit]]</calculatedColumnFormula>
       <totalsRowFormula>Table1[[#Totals],[Profit Increase]]/Table1[[#Totals],[Baseline Profit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8FC17E28-30CE-4607-8A60-9F7A9FD5A4A0}" name="Profit Contribution" dataDxfId="0" totalsRowDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{8FC17E28-30CE-4607-8A60-9F7A9FD5A4A0}" name="Profit Contribution" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Profit Increase]]/Table1[[#Totals],[Profit Increase]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2102,14 +2112,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA9DF42-562C-4DD3-8D89-2D723079B0E2}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E15"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="76.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.75" x14ac:dyDescent="0.4">
@@ -2146,7 +2154,7 @@
         <f>raw_data!H3</f>
         <v>-0.75509899999999996</v>
       </c>
-      <c r="E2" s="40" t="str">
+      <c r="E2" s="46" t="str">
         <f>VLOOKUP(A2&amp;B2,raw_data!$A$20:$H$35,6,FALSE)</f>
         <v>This is a very large segment and it's inelastic. A major finding for profit growth.</v>
       </c>
@@ -2300,9 +2308,9 @@
         <f>raw_data!H10</f>
         <v>1.212202</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="45" t="str">
         <f>VLOOKUP(A9&amp;B9,raw_data!$A$20:$H$35,6,FALSE)</f>
-        <v>Suggests other factors (promotions, trends) were the real drivers of sales.</v>
+        <v>Anomalouse result: Suggests other factors (promotions, trends) were the real drivers of sales.</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -2461,6 +2469,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2468,16 +2477,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1826EC00-8F22-4635-9D23-7D67FD45F90F}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.61328125" customWidth="1"/>
     <col min="2" max="4" width="15.15234375" customWidth="1"/>
     <col min="5" max="5" width="12.53515625" customWidth="1"/>
-    <col min="6" max="13" width="12.53515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="12.53515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.53515625" customWidth="1"/>
+    <col min="6" max="13" width="12.53515625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="12.53515625" customWidth="1"/>
     <col min="16" max="16" width="13.07421875" customWidth="1"/>
     <col min="17" max="17" width="9.3046875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.3828125" bestFit="1" customWidth="1"/>
@@ -3559,8 +3569,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N16">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3568,21 +3578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAC38100-E1F6-4E3A-B32B-66FD0DB9D35D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{879CF6C9-5A0E-4405-9AC0-1F63A7C46EAE}</x14:id>
+          <x14:id>{F82B84BD-056C-43B4-A0E9-93BEB7C43776}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3615,8 +3611,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="N2:N16">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3624,7 +3620,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F82B84BD-056C-43B4-A0E9-93BEB7C43776}</x14:id>
+          <x14:id>{DAC38100-E1F6-4E3A-B32B-66FD0DB9D35D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O16">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{879CF6C9-5A0E-4405-9AC0-1F63A7C46EAE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3651,7 +3661,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAC38100-E1F6-4E3A-B32B-66FD0DB9D35D}">
+          <x14:cfRule type="dataBar" id="{F82B84BD-056C-43B4-A0E9-93BEB7C43776}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3659,18 +3669,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N2:N16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{879CF6C9-5A0E-4405-9AC0-1F63A7C46EAE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O2:O16</xm:sqref>
+          <xm:sqref>E2:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{958FAC93-AAF1-4C56-971A-20EC531BA748}">
@@ -3695,7 +3694,7 @@
           <xm:sqref>K2:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F82B84BD-056C-43B4-A0E9-93BEB7C43776}">
+          <x14:cfRule type="dataBar" id="{DAC38100-E1F6-4E3A-B32B-66FD0DB9D35D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3703,7 +3702,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E16</xm:sqref>
+          <xm:sqref>N2:N16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{879CF6C9-5A0E-4405-9AC0-1F63A7C46EAE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O2:O16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48129EA9-E761-4BED-A533-8BC66F623908}">
@@ -3727,7 +3737,7 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4772,7 +4782,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -5165,13 +5175,13 @@
         <v>2.0399999999999999E-10</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G34" s="33">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
